--- a/RAFT-attempt/instructions.xlsx
+++ b/RAFT-attempt/instructions.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10512"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/camillejohnston/Documents/GitHub/IMPACT-task/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bellamoger/Documents/SPARK/RAFT-attempt/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65D2CB25-853F-1149-B1BB-1013B9E0F3D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68090013-9493-DE4A-9A05-E6E5DD13727A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1050,8 +1050,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/RAFT-attempt/instructions.xlsx
+++ b/RAFT-attempt/instructions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bellamoger/Documents/SPARK/RAFT-attempt/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68090013-9493-DE4A-9A05-E6E5DD13727A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B65735F7-AE19-114A-AF04-3377AB67A947}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1051,7 +1051,7 @@
   <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
